--- a/5sem/41/tables/geyger.xlsx
+++ b/5sem/41/tables/geyger.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="1540" windowWidth="26560" windowHeight="13520" tabRatio="500"/>
+    <workbookView xWindow="7640" yWindow="2680" windowWidth="26560" windowHeight="13520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
